--- a/database/expenses.xlsx
+++ b/database/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,92 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>241114</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chips</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>241114</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>subcriptions</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>241001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bills</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Electrical bill</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>241114</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>snacks</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chips</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/expenses.xlsx
+++ b/database/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,19 +465,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>241114</v>
+        <v>241005</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>snacks</t>
+          <t>Snacks</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chips</t>
+          <t>Cup noodles</t>
         </is>
       </c>
     </row>
@@ -486,21 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>241114</v>
+        <v>241006</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>subcriptions</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Biscuits</t>
         </is>
       </c>
     </row>
@@ -509,19 +507,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>241001</v>
+        <v>241010</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>Snacks</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Electrical bill</t>
+          <t>Biscuits, ice cream</t>
         </is>
       </c>
     </row>
@@ -530,19 +528,504 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>241114</v>
+        <v>241015</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>snacks</t>
+          <t>Snacks</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Triple bar ice cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>241016</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chips</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Puff</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>241017</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Triple bar ice cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>241017</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cup noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>241021</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Apple juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>241025</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cavin's coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>241028</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nutty bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>241030</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chips and cone</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>241101</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cup noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>241105</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cup noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>241107</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>241108</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Puff and chips</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>241108</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>241115</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cone and 5 star</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>241115</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>School_things</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pens</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>241118</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>puff and biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>241119</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sandwich and watermelon juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>241119</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>School_things</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Correction pen</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>241119</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>School_things</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>250</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Analog watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>241119</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Personal_things</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>330</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Usb Pen drive</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>241030</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Personal_things</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Loops earplugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>241121</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cutlet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>241121</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Biscuits and chips</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>241121</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Burger</t>
         </is>
       </c>
     </row>
